--- a/public/Plantilla_Codigos.xlsx
+++ b/public/Plantilla_Codigos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francosanchez/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francosanchez/Documents/www/odontoApp/front/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40526F4B-10A6-AD44-A921-34EAC6101C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68EFBFE-3E90-8144-8DBE-5E3740A841A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -101,24 +101,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,29 +425,28 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B357" sqref="B357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
